--- a/doc/objects/cat001.xlsx
+++ b/doc/objects/cat001.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="396">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="397">
   <si>
     <t xml:space="preserve">COLID</t>
   </si>
@@ -1197,6 +1197,9 @@
   </si>
   <si>
     <t xml:space="preserve">200.CALCULATED GROUNDSPEED</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mn/s to kt</t>
   </si>
   <si>
     <t xml:space="preserve">200.CALCULATED HEADING</t>
@@ -1296,7 +1299,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1313,19 +1316,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1352,7 +1347,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.01"/>
@@ -3898,10 +3893,10 @@
   <dimension ref="A1:I106"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A99" activeCellId="0" sqref="A99"/>
+      <selection pane="topLeft" activeCell="E95" activeCellId="0" sqref="E95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.19"/>
@@ -3942,7 +3937,6 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4"/>
       <c r="B2" s="0" t="s">
         <v>11</v>
       </c>
@@ -3952,7 +3946,7 @@
       <c r="D2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="4" t="s">
         <v>352</v>
       </c>
       <c r="F2" s="1" t="s">
@@ -3963,7 +3957,7 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5"/>
+      <c r="A3" s="4"/>
       <c r="B3" s="0" t="s">
         <v>16</v>
       </c>
@@ -3973,7 +3967,7 @@
       <c r="D3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>352</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -3984,7 +3978,6 @@
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="4"/>
       <c r="B4" s="0" t="s">
         <v>20</v>
       </c>
@@ -3994,7 +3987,7 @@
       <c r="D4" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>352</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -4005,7 +3998,6 @@
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="4"/>
       <c r="B5" s="0" t="s">
         <v>24</v>
       </c>
@@ -4015,7 +4007,7 @@
       <c r="D5" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>352</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -4026,7 +4018,6 @@
       </c>
     </row>
     <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="4"/>
       <c r="B6" s="0" t="s">
         <v>27</v>
       </c>
@@ -4036,7 +4027,7 @@
       <c r="D6" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>352</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -4047,7 +4038,6 @@
       </c>
     </row>
     <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="4"/>
       <c r="B7" s="0" t="s">
         <v>30</v>
       </c>
@@ -4057,7 +4047,7 @@
       <c r="D7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E7" s="5" t="s">
+      <c r="E7" s="4" t="s">
         <v>352</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -4068,7 +4058,6 @@
       </c>
     </row>
     <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="4"/>
       <c r="B8" s="0" t="s">
         <v>33</v>
       </c>
@@ -4078,7 +4067,7 @@
       <c r="D8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>352</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -4089,7 +4078,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>353</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -4107,7 +4096,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>354</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -4119,7 +4108,7 @@
       <c r="D10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F10" s="1"/>
@@ -4128,7 +4117,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>356</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -4140,7 +4129,7 @@
       <c r="D11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>357</v>
       </c>
       <c r="F11" s="1"/>
@@ -4149,7 +4138,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>358</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -4172,7 +4161,6 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="4"/>
       <c r="B13" s="0" t="s">
         <v>46</v>
       </c>
@@ -4193,7 +4181,6 @@
       </c>
     </row>
     <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="4"/>
       <c r="B14" s="0" t="s">
         <v>49</v>
       </c>
@@ -4211,7 +4198,7 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="5"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="0" t="s">
         <v>53</v>
       </c>
@@ -4229,7 +4216,7 @@
       </c>
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>361</v>
       </c>
       <c r="B16" s="0" t="s">
@@ -4249,7 +4236,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>362</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -4272,7 +4259,6 @@
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="4"/>
       <c r="B18" s="0" t="s">
         <v>62</v>
       </c>
@@ -4282,7 +4268,7 @@
       <c r="D18" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>364</v>
       </c>
       <c r="F18" s="1"/>
@@ -4291,7 +4277,6 @@
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="4"/>
       <c r="B19" s="0" t="s">
         <v>65</v>
       </c>
@@ -4301,7 +4286,7 @@
       <c r="D19" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>365</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -4312,7 +4297,7 @@
       </c>
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="0" t="s">
         <v>366</v>
       </c>
       <c r="B20" s="0" t="s">
@@ -4332,7 +4317,7 @@
       </c>
     </row>
     <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="0" t="s">
         <v>367</v>
       </c>
       <c r="B21" s="0" t="s">
@@ -4352,7 +4337,6 @@
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="4"/>
       <c r="B22" s="0" t="s">
         <v>76</v>
       </c>
@@ -4373,7 +4357,7 @@
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="5"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="0" t="s">
         <v>80</v>
       </c>
@@ -4392,7 +4376,6 @@
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="4"/>
       <c r="B24" s="0" t="s">
         <v>82</v>
       </c>
@@ -4410,7 +4393,6 @@
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="4"/>
       <c r="B25" s="0" t="s">
         <v>86</v>
       </c>
@@ -4431,7 +4413,6 @@
       </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="4"/>
       <c r="B26" s="0" t="s">
         <v>89</v>
       </c>
@@ -4452,7 +4433,6 @@
       </c>
     </row>
     <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="4"/>
       <c r="B27" s="0" t="s">
         <v>92</v>
       </c>
@@ -4462,7 +4442,7 @@
       <c r="D27" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="6" t="s">
+      <c r="E27" s="5" t="s">
         <v>368</v>
       </c>
       <c r="F27" s="1" t="s">
@@ -4473,7 +4453,6 @@
       </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="4"/>
       <c r="B28" s="0" t="s">
         <v>95</v>
       </c>
@@ -4492,7 +4471,7 @@
       </c>
     </row>
     <row r="29" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="0" t="s">
         <v>369</v>
       </c>
       <c r="B29" s="0" t="s">
@@ -4504,7 +4483,7 @@
       <c r="D29" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="6" t="s">
+      <c r="E29" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -4515,7 +4494,7 @@
       </c>
     </row>
     <row r="30" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="0" t="s">
         <v>370</v>
       </c>
       <c r="B30" s="0" t="s">
@@ -4527,7 +4506,7 @@
       <c r="D30" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -4538,7 +4517,6 @@
       </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="4"/>
       <c r="B31" s="0" t="s">
         <v>103</v>
       </c>
@@ -4556,7 +4534,6 @@
       </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="4"/>
       <c r="B32" s="0" t="s">
         <v>106</v>
       </c>
@@ -4574,7 +4551,6 @@
       </c>
     </row>
     <row r="33" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="4"/>
       <c r="B33" s="0" t="s">
         <v>109</v>
       </c>
@@ -4592,7 +4568,6 @@
       </c>
     </row>
     <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="4"/>
       <c r="B34" s="0" t="s">
         <v>112</v>
       </c>
@@ -4610,7 +4585,6 @@
       </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="4"/>
       <c r="B35" s="0" t="s">
         <v>115</v>
       </c>
@@ -4628,7 +4602,6 @@
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="4"/>
       <c r="B36" s="0" t="s">
         <v>118</v>
       </c>
@@ -4646,7 +4619,6 @@
       </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
       <c r="B37" s="0" t="s">
         <v>121</v>
       </c>
@@ -4664,7 +4636,6 @@
       </c>
     </row>
     <row r="38" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="4"/>
       <c r="B38" s="0" t="s">
         <v>124</v>
       </c>
@@ -4682,7 +4653,6 @@
       </c>
     </row>
     <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="4"/>
       <c r="B39" s="0" t="s">
         <v>127</v>
       </c>
@@ -4700,7 +4670,6 @@
       </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4"/>
       <c r="B40" s="0" t="s">
         <v>130</v>
       </c>
@@ -4718,7 +4687,7 @@
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="0" t="s">
         <v>371</v>
       </c>
       <c r="B41" s="0" t="s">
@@ -4738,7 +4707,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="0" t="s">
         <v>372</v>
       </c>
       <c r="B42" s="0" t="s">
@@ -4750,7 +4719,7 @@
       <c r="D42" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -4761,7 +4730,6 @@
       </c>
     </row>
     <row r="43" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="4"/>
       <c r="B43" s="0" t="s">
         <v>140</v>
       </c>
@@ -4779,7 +4747,7 @@
       </c>
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="0" t="s">
         <v>373</v>
       </c>
       <c r="B44" s="0" t="s">
@@ -4791,7 +4759,7 @@
       <c r="D44" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="6" t="s">
+      <c r="E44" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -4802,7 +4770,7 @@
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="0" t="s">
         <v>374</v>
       </c>
       <c r="B45" s="0" t="s">
@@ -4814,7 +4782,7 @@
       <c r="D45" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="6" t="s">
+      <c r="E45" s="5" t="s">
         <v>357</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -4825,7 +4793,7 @@
       </c>
     </row>
     <row r="46" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="5"/>
+      <c r="A46" s="4"/>
       <c r="B46" s="0" t="s">
         <v>149</v>
       </c>
@@ -4843,7 +4811,7 @@
       </c>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="0" t="s">
         <v>353</v>
       </c>
       <c r="B47" s="0" t="s">
@@ -4869,7 +4837,6 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="4"/>
       <c r="B48" s="0" t="s">
         <v>157</v>
       </c>
@@ -4890,7 +4857,7 @@
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="0" t="s">
         <v>354</v>
       </c>
       <c r="B49" s="0" t="s">
@@ -4902,7 +4869,7 @@
       <c r="D49" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="6" t="s">
+      <c r="E49" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -4913,7 +4880,6 @@
       </c>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4"/>
       <c r="B50" s="0" t="s">
         <v>163</v>
       </c>
@@ -4934,7 +4900,6 @@
       </c>
     </row>
     <row r="51" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="4"/>
       <c r="B51" s="0" t="s">
         <v>166</v>
       </c>
@@ -4955,7 +4920,7 @@
       </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4" t="s">
+      <c r="A52" s="0" t="s">
         <v>356</v>
       </c>
       <c r="B52" s="0" t="s">
@@ -4967,7 +4932,7 @@
       <c r="D52" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="6" t="s">
+      <c r="E52" s="5" t="s">
         <v>357</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -4978,7 +4943,6 @@
       </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="4"/>
       <c r="B53" s="0" t="s">
         <v>172</v>
       </c>
@@ -4999,7 +4963,6 @@
       </c>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="4"/>
       <c r="B54" s="0" t="s">
         <v>175</v>
       </c>
@@ -5020,7 +4983,6 @@
       </c>
     </row>
     <row r="55" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="4"/>
       <c r="B55" s="0" t="s">
         <v>178</v>
       </c>
@@ -5038,7 +5000,6 @@
       </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="4"/>
       <c r="B56" s="0" t="s">
         <v>181</v>
       </c>
@@ -5056,7 +5017,6 @@
       </c>
     </row>
     <row r="57" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="4"/>
       <c r="B57" s="0" t="s">
         <v>184</v>
       </c>
@@ -5074,7 +5034,7 @@
       </c>
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="4" t="s">
+      <c r="A58" s="0" t="s">
         <v>375</v>
       </c>
       <c r="B58" s="0" t="s">
@@ -5100,7 +5060,6 @@
       </c>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4"/>
       <c r="B59" s="0" t="s">
         <v>192</v>
       </c>
@@ -5118,7 +5077,6 @@
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="4"/>
       <c r="B60" s="0" t="s">
         <v>195</v>
       </c>
@@ -5142,7 +5100,6 @@
       </c>
     </row>
     <row r="61" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4"/>
       <c r="B61" s="0" t="s">
         <v>198</v>
       </c>
@@ -5160,7 +5117,6 @@
       </c>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4"/>
       <c r="B62" s="0" t="s">
         <v>201</v>
       </c>
@@ -5178,7 +5134,6 @@
       </c>
     </row>
     <row r="63" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4"/>
       <c r="B63" s="0" t="s">
         <v>203</v>
       </c>
@@ -5196,7 +5151,6 @@
       </c>
     </row>
     <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A64" s="4"/>
       <c r="B64" s="0" t="s">
         <v>206</v>
       </c>
@@ -5214,7 +5168,6 @@
       </c>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="4"/>
       <c r="B65" s="0" t="s">
         <v>208</v>
       </c>
@@ -5238,7 +5191,7 @@
       </c>
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A66" s="4" t="s">
+      <c r="A66" s="0" t="s">
         <v>376</v>
       </c>
       <c r="B66" s="0" t="s">
@@ -5264,7 +5217,6 @@
       </c>
     </row>
     <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="4"/>
       <c r="B67" s="0" t="s">
         <v>216</v>
       </c>
@@ -5282,7 +5234,6 @@
       </c>
     </row>
     <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A68" s="4"/>
       <c r="B68" s="0" t="s">
         <v>218</v>
       </c>
@@ -5300,7 +5251,6 @@
       </c>
     </row>
     <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="4"/>
       <c r="B69" s="0" t="s">
         <v>221</v>
       </c>
@@ -5318,7 +5268,6 @@
       </c>
     </row>
     <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A70" s="4"/>
       <c r="B70" s="0" t="s">
         <v>224</v>
       </c>
@@ -5336,7 +5285,6 @@
       </c>
     </row>
     <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="4"/>
       <c r="B71" s="0" t="s">
         <v>227</v>
       </c>
@@ -5354,7 +5302,6 @@
       </c>
     </row>
     <row r="72" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="4"/>
       <c r="B72" s="0" t="s">
         <v>230</v>
       </c>
@@ -5375,7 +5322,6 @@
       </c>
     </row>
     <row r="73" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="4"/>
       <c r="B73" s="0" t="s">
         <v>233</v>
       </c>
@@ -5396,7 +5342,6 @@
       </c>
     </row>
     <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="4"/>
       <c r="B74" s="0" t="s">
         <v>236</v>
       </c>
@@ -5414,7 +5359,7 @@
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="5"/>
+      <c r="A75" s="4"/>
       <c r="B75" s="0" t="s">
         <v>240</v>
       </c>
@@ -5432,7 +5377,6 @@
       </c>
     </row>
     <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="4"/>
       <c r="B76" s="0" t="s">
         <v>243</v>
       </c>
@@ -5453,7 +5397,6 @@
       </c>
     </row>
     <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="4"/>
       <c r="B77" s="0" t="s">
         <v>246</v>
       </c>
@@ -5463,7 +5406,7 @@
       <c r="D77" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="5" t="s">
         <v>378</v>
       </c>
       <c r="F77" s="1" t="s">
@@ -5474,7 +5417,6 @@
       </c>
     </row>
     <row r="78" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="4"/>
       <c r="B78" s="0" t="s">
         <v>249</v>
       </c>
@@ -5484,7 +5426,7 @@
       <c r="D78" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="6" t="s">
+      <c r="E78" s="5" t="s">
         <v>378</v>
       </c>
       <c r="F78" s="1" t="s">
@@ -5495,7 +5437,7 @@
       </c>
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="0" t="s">
         <v>362</v>
       </c>
       <c r="B79" s="0" t="s">
@@ -5518,7 +5460,7 @@
       </c>
     </row>
     <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A80" s="4" t="s">
+      <c r="A80" s="0" t="s">
         <v>379</v>
       </c>
       <c r="B80" s="0" t="s">
@@ -5530,7 +5472,7 @@
       <c r="D80" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E80" s="6" t="s">
+      <c r="E80" s="5" t="s">
         <v>380</v>
       </c>
       <c r="F80" s="1" t="s">
@@ -5541,7 +5483,6 @@
       </c>
     </row>
     <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="4"/>
       <c r="B81" s="0" t="s">
         <v>258</v>
       </c>
@@ -5562,7 +5503,7 @@
       </c>
     </row>
     <row r="82" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A82" s="4" t="s">
+      <c r="A82" s="0" t="s">
         <v>381</v>
       </c>
       <c r="B82" s="0" t="s">
@@ -5574,7 +5515,7 @@
       <c r="D82" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="6" t="s">
+      <c r="E82" s="5" t="s">
         <v>380</v>
       </c>
       <c r="F82" s="1" t="s">
@@ -5585,7 +5526,7 @@
       </c>
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="0" t="s">
         <v>382</v>
       </c>
       <c r="B83" s="0" t="s">
@@ -5597,7 +5538,7 @@
       <c r="D83" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="6" t="s">
+      <c r="E83" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -5608,7 +5549,7 @@
       </c>
     </row>
     <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A84" s="4" t="s">
+      <c r="A84" s="0" t="s">
         <v>383</v>
       </c>
       <c r="B84" s="0" t="s">
@@ -5620,7 +5561,7 @@
       <c r="D84" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="6" t="s">
+      <c r="E84" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -5631,7 +5572,6 @@
       </c>
     </row>
     <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="4"/>
       <c r="B85" s="0" t="s">
         <v>270</v>
       </c>
@@ -5652,7 +5592,6 @@
       </c>
     </row>
     <row r="86" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="4"/>
       <c r="B86" s="0" t="s">
         <v>273</v>
       </c>
@@ -5670,7 +5609,7 @@
       </c>
     </row>
     <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="0" t="s">
         <v>384</v>
       </c>
       <c r="B87" s="0" t="s">
@@ -5682,7 +5621,7 @@
       <c r="D87" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="6" t="s">
+      <c r="E87" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -5693,7 +5632,7 @@
       </c>
     </row>
     <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="4" t="s">
+      <c r="A88" s="0" t="s">
         <v>385</v>
       </c>
       <c r="B88" s="0" t="s">
@@ -5719,7 +5658,6 @@
       </c>
     </row>
     <row r="89" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="4"/>
       <c r="B89" s="0" t="s">
         <v>287</v>
       </c>
@@ -5740,7 +5678,7 @@
       </c>
     </row>
     <row r="90" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A90" s="5"/>
+      <c r="A90" s="4"/>
       <c r="B90" s="0" t="s">
         <v>290</v>
       </c>
@@ -5758,7 +5696,7 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="6" t="s">
+      <c r="A91" s="5" t="s">
         <v>386</v>
       </c>
       <c r="B91" s="0" t="s">
@@ -5770,7 +5708,7 @@
       <c r="D91" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="6" t="s">
+      <c r="E91" s="5" t="s">
         <v>387</v>
       </c>
       <c r="F91" s="1" t="s">
@@ -5781,7 +5719,7 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="6" t="s">
+      <c r="A92" s="5" t="s">
         <v>388</v>
       </c>
       <c r="B92" s="0" t="s">
@@ -5793,7 +5731,7 @@
       <c r="D92" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="6" t="s">
+      <c r="E92" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -5804,7 +5742,7 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="6" t="s">
+      <c r="A93" s="5" t="s">
         <v>389</v>
       </c>
       <c r="B93" s="0" t="s">
@@ -5816,7 +5754,7 @@
       <c r="D93" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="6" t="s">
+      <c r="E93" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -5827,7 +5765,7 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="6" t="s">
+      <c r="A94" s="5" t="s">
         <v>390</v>
       </c>
       <c r="B94" s="0" t="s">
@@ -5839,7 +5777,7 @@
       <c r="D94" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="6" t="s">
+      <c r="E94" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -5850,7 +5788,7 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="5" t="s">
         <v>391</v>
       </c>
       <c r="B95" s="0" t="s">
@@ -5863,7 +5801,7 @@
         <v>17</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>363</v>
+        <v>392</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>306</v>
@@ -5879,8 +5817,8 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="6" t="s">
-        <v>392</v>
+      <c r="A96" s="5" t="s">
+        <v>393</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>310</v>
@@ -5905,7 +5843,6 @@
       </c>
     </row>
     <row r="97" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="4"/>
       <c r="B97" s="0" t="s">
         <v>313</v>
       </c>
@@ -5915,7 +5852,7 @@
       <c r="D97" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="6" t="s">
+      <c r="E97" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -5926,8 +5863,8 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="6" t="s">
-        <v>393</v>
+      <c r="A98" s="5" t="s">
+        <v>394</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>316</v>
@@ -5946,8 +5883,8 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="6" t="s">
-        <v>394</v>
+      <c r="A99" s="5" t="s">
+        <v>395</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>319</v>
@@ -5966,8 +5903,8 @@
       </c>
     </row>
     <row r="100" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="5"/>
-      <c r="B100" s="5" t="s">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4" t="s">
         <v>322</v>
       </c>
       <c r="C100" s="0" t="s">
@@ -5984,8 +5921,8 @@
       </c>
     </row>
     <row r="101" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="5"/>
-      <c r="B101" s="5" t="s">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4" t="s">
         <v>325</v>
       </c>
       <c r="C101" s="0" t="s">
@@ -6002,8 +5939,8 @@
       </c>
     </row>
     <row r="102" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="5"/>
-      <c r="B102" s="5" t="s">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4" t="s">
         <v>328</v>
       </c>
       <c r="C102" s="0" t="s">
@@ -6020,8 +5957,8 @@
       </c>
     </row>
     <row r="103" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="5"/>
-      <c r="B103" s="5" t="s">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4" t="s">
         <v>331</v>
       </c>
       <c r="C103" s="0" t="s">
@@ -6038,7 +5975,6 @@
       </c>
     </row>
     <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="4"/>
       <c r="B104" s="0" t="s">
         <v>334</v>
       </c>
@@ -6048,7 +5984,7 @@
       <c r="D104" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="6" t="s">
+      <c r="E104" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -6059,7 +5995,6 @@
       </c>
     </row>
     <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="4"/>
       <c r="B105" s="0" t="s">
         <v>337</v>
       </c>
@@ -6069,7 +6004,7 @@
       <c r="D105" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E105" s="6" t="s">
+      <c r="E105" s="5" t="s">
         <v>355</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -6080,7 +6015,6 @@
       </c>
     </row>
     <row r="106" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="4"/>
       <c r="B106" s="0" t="s">
         <v>340</v>
       </c>
@@ -6091,7 +6025,7 @@
         <v>12</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>341</v>

--- a/doc/objects/cat001.xlsx
+++ b/doc/objects/cat001.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="397">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="398">
   <si>
     <t xml:space="preserve">COLID</t>
   </si>
@@ -1106,6 +1106,9 @@
     <t xml:space="preserve">null in db</t>
   </si>
   <si>
+    <t xml:space="preserve">custom</t>
+  </si>
+  <si>
     <t xml:space="preserve">custom based on 070.Mode-3/A reply</t>
   </si>
   <si>
@@ -1163,7 +1166,7 @@
     <t xml:space="preserve">010.SAC</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO share in frame</t>
+    <t xml:space="preserve">shared in data block</t>
   </si>
   <si>
     <t xml:space="preserve">010.SIC</t>
@@ -1299,7 +1302,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1314,6 +1317,10 @@
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -3892,8 +3899,8 @@
   </sheetPr>
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A76" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E95" activeCellId="0" sqref="E95"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E104" activeCellId="0" sqref="E104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -4198,7 +4205,9 @@
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="4"/>
+      <c r="A15" s="4" t="s">
+        <v>361</v>
+      </c>
       <c r="B15" s="0" t="s">
         <v>53</v>
       </c>
@@ -4217,7 +4226,7 @@
     </row>
     <row r="16" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B16" s="0" t="s">
         <v>56</v>
@@ -4237,7 +4246,7 @@
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B17" s="0" t="s">
         <v>59</v>
@@ -4249,7 +4258,7 @@
         <v>21</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>60</v>
@@ -4269,7 +4278,7 @@
         <v>63</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F18" s="1"/>
       <c r="I18" s="0" t="s">
@@ -4286,8 +4295,8 @@
       <c r="D19" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="5" t="s">
-        <v>365</v>
+      <c r="E19" s="6" t="s">
+        <v>366</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>66</v>
@@ -4298,7 +4307,7 @@
     </row>
     <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B20" s="0" t="s">
         <v>68</v>
@@ -4316,9 +4325,9 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B21" s="0" t="s">
         <v>73</v>
@@ -4328,6 +4337,9 @@
       </c>
       <c r="D21" s="0" t="s">
         <v>12</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="F21" s="1" t="s">
         <v>74</v>
@@ -4347,7 +4359,7 @@
         <v>77</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>78</v>
@@ -4423,7 +4435,7 @@
         <v>63</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>90</v>
@@ -4442,8 +4454,8 @@
       <c r="D27" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E27" s="5" t="s">
-        <v>368</v>
+      <c r="E27" s="6" t="s">
+        <v>369</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>93</v>
@@ -4463,7 +4475,7 @@
         <v>63</v>
       </c>
       <c r="E28" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F28" s="1"/>
       <c r="I28" s="0" t="s">
@@ -4472,7 +4484,7 @@
     </row>
     <row r="29" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B29" s="0" t="s">
         <v>97</v>
@@ -4495,7 +4507,7 @@
     </row>
     <row r="30" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="0" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="B30" s="0" t="s">
         <v>100</v>
@@ -4688,7 +4700,7 @@
     </row>
     <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B41" s="0" t="s">
         <v>133</v>
@@ -4708,7 +4720,7 @@
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="0" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B42" s="0" t="s">
         <v>137</v>
@@ -4748,7 +4760,7 @@
     </row>
     <row r="44" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B44" s="0" t="s">
         <v>143</v>
@@ -4771,7 +4783,7 @@
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="0" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="B45" s="0" t="s">
         <v>146</v>
@@ -5035,7 +5047,7 @@
     </row>
     <row r="58" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="0" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B58" s="0" t="s">
         <v>187</v>
@@ -5192,7 +5204,7 @@
     </row>
     <row r="66" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="0" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B66" s="0" t="s">
         <v>211</v>
@@ -5312,7 +5324,7 @@
         <v>17</v>
       </c>
       <c r="E72" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>231</v>
@@ -5332,7 +5344,7 @@
         <v>17</v>
       </c>
       <c r="E73" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>234</v>
@@ -5369,6 +5381,9 @@
       <c r="D75" s="0" t="s">
         <v>12</v>
       </c>
+      <c r="E75" s="0" t="s">
+        <v>352</v>
+      </c>
       <c r="F75" s="1" t="s">
         <v>241</v>
       </c>
@@ -5387,7 +5402,7 @@
         <v>63</v>
       </c>
       <c r="E76" s="0" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>244</v>
@@ -5406,8 +5421,8 @@
       <c r="D77" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E77" s="5" t="s">
-        <v>378</v>
+      <c r="E77" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>247</v>
@@ -5426,8 +5441,8 @@
       <c r="D78" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="E78" s="5" t="s">
-        <v>378</v>
+      <c r="E78" s="6" t="s">
+        <v>379</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>250</v>
@@ -5438,7 +5453,7 @@
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>252</v>
@@ -5450,7 +5465,7 @@
         <v>21</v>
       </c>
       <c r="E79" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>253</v>
@@ -5461,7 +5476,7 @@
     </row>
     <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>255</v>
@@ -5473,7 +5488,7 @@
         <v>21</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>256</v>
@@ -5493,7 +5508,7 @@
         <v>63</v>
       </c>
       <c r="E81" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F81" s="1" t="s">
         <v>259</v>
@@ -5504,7 +5519,7 @@
     </row>
     <row r="82" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>261</v>
@@ -5516,7 +5531,7 @@
         <v>21</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>262</v>
@@ -5527,7 +5542,7 @@
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>264</v>
@@ -5550,7 +5565,7 @@
     </row>
     <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>267</v>
@@ -5582,7 +5597,7 @@
         <v>69</v>
       </c>
       <c r="E85" s="0" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>271</v>
@@ -5610,7 +5625,7 @@
     </row>
     <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>277</v>
@@ -5633,7 +5648,7 @@
     </row>
     <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>280</v>
@@ -5668,7 +5683,7 @@
         <v>12</v>
       </c>
       <c r="E89" s="0" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>288</v>
@@ -5697,7 +5712,7 @@
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="5" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>293</v>
@@ -5709,7 +5724,7 @@
         <v>12</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>294</v>
@@ -5720,7 +5735,7 @@
     </row>
     <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="5" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>296</v>
@@ -5743,7 +5758,7 @@
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="5" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>299</v>
@@ -5766,7 +5781,7 @@
     </row>
     <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="5" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>302</v>
@@ -5789,7 +5804,7 @@
     </row>
     <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="5" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>305</v>
@@ -5801,7 +5816,7 @@
         <v>17</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>306</v>
@@ -5818,7 +5833,7 @@
     </row>
     <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="5" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>310</v>
@@ -5853,7 +5868,7 @@
         <v>12</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F97" s="1" t="s">
         <v>314</v>
@@ -5864,7 +5879,7 @@
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>316</v>
@@ -5884,7 +5899,7 @@
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="5" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>319</v>
@@ -5974,7 +5989,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="104" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="104" customFormat="false" ht="24.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B104" s="0" t="s">
         <v>334</v>
       </c>
@@ -5985,7 +6000,7 @@
         <v>12</v>
       </c>
       <c r="E104" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>335</v>
@@ -5994,7 +6009,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="105" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="105" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B105" s="0" t="s">
         <v>337</v>
       </c>
@@ -6005,7 +6020,7 @@
         <v>12</v>
       </c>
       <c r="E105" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>338</v>
@@ -6025,7 +6040,7 @@
         <v>12</v>
       </c>
       <c r="E106" s="0" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>341</v>

--- a/doc/objects/cat001.xlsx
+++ b/doc/objects/cat001.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1297" uniqueCount="398">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1296" uniqueCount="399">
   <si>
     <t xml:space="preserve">COLID</t>
   </si>
@@ -1112,61 +1112,64 @@
     <t xml:space="preserve">custom based on 070.Mode-3/A reply</t>
   </si>
   <si>
+    <t xml:space="preserve">020.SSR/PSR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">different in db</t>
+  </si>
+  <si>
+    <t xml:space="preserve">?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO from framing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">different</t>
+  </si>
+  <si>
+    <t xml:space="preserve">020.RAB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO from framing? </t>
+  </si>
+  <si>
+    <t xml:space="preserve">020.ME</t>
+  </si>
+  <si>
+    <t xml:space="preserve">020.MI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">070.Mode-3/A reply</t>
+  </si>
+  <si>
+    <t xml:space="preserve">070.G</t>
+  </si>
+  <si>
+    <t xml:space="preserve">070.L</t>
+  </si>
+  <si>
+    <t xml:space="preserve">070.V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">040.THETA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">040.RHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">other counter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO from framing?</t>
+  </si>
+  <si>
     <t xml:space="preserve">020.TYP</t>
   </si>
   <si>
-    <t xml:space="preserve">different in db</t>
-  </si>
-  <si>
-    <t xml:space="preserve">?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO from framing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">different</t>
-  </si>
-  <si>
-    <t xml:space="preserve">020.RAB</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO from framing? </t>
-  </si>
-  <si>
-    <t xml:space="preserve">020.ME</t>
-  </si>
-  <si>
-    <t xml:space="preserve">020.MI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070.Mode-3/A reply</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070.G</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070.L</t>
-  </si>
-  <si>
-    <t xml:space="preserve">070.V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">040.THETA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">040.RHO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">other counter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO from framing?</t>
-  </si>
-  <si>
     <t xml:space="preserve">010.SAC</t>
   </si>
   <si>
-    <t xml:space="preserve">shared in data block</t>
+    <t xml:space="preserve">shared in data block, WRONG, based on service msgs and plots</t>
   </si>
   <si>
     <t xml:space="preserve">010.SIC</t>
@@ -1178,6 +1181,9 @@
     <t xml:space="preserve">020.SPI</t>
   </si>
   <si>
+    <t xml:space="preserve">different in db, check in decoder</t>
+  </si>
+  <si>
     <t xml:space="preserve">020.TST</t>
   </si>
   <si>
@@ -1212,9 +1218,6 @@
   </si>
   <si>
     <t xml:space="preserve">custom based on 170.RDPC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">not set in db</t>
   </si>
 </sst>
 </file>
@@ -1354,7 +1357,7 @@
       <selection pane="topLeft" activeCell="K2" activeCellId="0" sqref="K2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="45.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.01"/>
@@ -3899,11 +3902,11 @@
   </sheetPr>
   <dimension ref="A1:I106"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A73" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E104" activeCellId="0" sqref="E104"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B66" activeCellId="0" sqref="B66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="32.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="42.19"/>
@@ -4085,7 +4088,7 @@
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>353</v>
       </c>
       <c r="B9" s="0" t="s">
@@ -4103,7 +4106,7 @@
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>354</v>
       </c>
       <c r="B10" s="0" t="s">
@@ -4115,7 +4118,7 @@
       <c r="D10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F10" s="1"/>
@@ -4124,7 +4127,7 @@
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>356</v>
       </c>
       <c r="B11" s="0" t="s">
@@ -4136,7 +4139,7 @@
       <c r="D11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>357</v>
       </c>
       <c r="F11" s="1"/>
@@ -4145,7 +4148,7 @@
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>358</v>
       </c>
       <c r="B12" s="0" t="s">
@@ -4245,7 +4248,7 @@
       </c>
     </row>
     <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>363</v>
       </c>
       <c r="B17" s="0" t="s">
@@ -4338,7 +4341,7 @@
       <c r="D21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -4495,7 +4498,7 @@
       <c r="D29" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F29" s="1" t="s">
@@ -4518,7 +4521,7 @@
       <c r="D30" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F30" s="1" t="s">
@@ -4731,7 +4734,7 @@
       <c r="D42" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E42" s="5" t="s">
+      <c r="E42" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F42" s="1" t="s">
@@ -4771,7 +4774,7 @@
       <c r="D44" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="5" t="s">
+      <c r="E44" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F44" s="1" t="s">
@@ -4794,7 +4797,7 @@
       <c r="D45" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E45" s="5" t="s">
+      <c r="E45" s="4" t="s">
         <v>357</v>
       </c>
       <c r="F45" s="1" t="s">
@@ -4881,7 +4884,7 @@
       <c r="D49" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E49" s="5" t="s">
+      <c r="E49" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F49" s="1" t="s">
@@ -4944,7 +4947,7 @@
       <c r="D52" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E52" s="5" t="s">
+      <c r="E52" s="4" t="s">
         <v>357</v>
       </c>
       <c r="F52" s="1" t="s">
@@ -5453,7 +5456,7 @@
     </row>
     <row r="79" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0" t="s">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="B79" s="0" t="s">
         <v>252</v>
@@ -5464,9 +5467,6 @@
       <c r="D79" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E79" s="0" t="s">
-        <v>364</v>
-      </c>
       <c r="F79" s="1" t="s">
         <v>253</v>
       </c>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="80" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="0" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="B80" s="0" t="s">
         <v>255</v>
@@ -5487,8 +5487,8 @@
       <c r="D80" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E80" s="5" t="s">
-        <v>381</v>
+      <c r="E80" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>256</v>
@@ -5519,7 +5519,7 @@
     </row>
     <row r="82" customFormat="false" ht="35.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="0" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B82" s="0" t="s">
         <v>261</v>
@@ -5530,8 +5530,8 @@
       <c r="D82" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E82" s="5" t="s">
-        <v>381</v>
+      <c r="E82" s="6" t="s">
+        <v>382</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>262</v>
@@ -5542,7 +5542,7 @@
     </row>
     <row r="83" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="0" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B83" s="0" t="s">
         <v>264</v>
@@ -5553,7 +5553,7 @@
       <c r="D83" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E83" s="5" t="s">
+      <c r="E83" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F83" s="1" t="s">
@@ -5565,7 +5565,7 @@
     </row>
     <row r="84" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="0" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="B84" s="0" t="s">
         <v>267</v>
@@ -5576,7 +5576,7 @@
       <c r="D84" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E84" s="5" t="s">
+      <c r="E84" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F84" s="1" t="s">
@@ -5596,8 +5596,8 @@
       <c r="D85" s="0" t="s">
         <v>69</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>364</v>
+      <c r="E85" s="6" t="s">
+        <v>386</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>271</v>
@@ -5625,7 +5625,7 @@
     </row>
     <row r="87" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B87" s="0" t="s">
         <v>277</v>
@@ -5636,7 +5636,7 @@
       <c r="D87" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E87" s="5" t="s">
+      <c r="E87" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F87" s="1" t="s">
@@ -5648,7 +5648,7 @@
     </row>
     <row r="88" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="0" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B88" s="0" t="s">
         <v>280</v>
@@ -5711,8 +5711,8 @@
       </c>
     </row>
     <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="5" t="s">
-        <v>387</v>
+      <c r="A91" s="4" t="s">
+        <v>389</v>
       </c>
       <c r="B91" s="0" t="s">
         <v>293</v>
@@ -5723,8 +5723,8 @@
       <c r="D91" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E91" s="5" t="s">
-        <v>388</v>
+      <c r="E91" s="4" t="s">
+        <v>390</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>294</v>
@@ -5734,8 +5734,8 @@
       </c>
     </row>
     <row r="92" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A92" s="5" t="s">
-        <v>389</v>
+      <c r="A92" s="4" t="s">
+        <v>391</v>
       </c>
       <c r="B92" s="0" t="s">
         <v>296</v>
@@ -5746,7 +5746,7 @@
       <c r="D92" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E92" s="5" t="s">
+      <c r="E92" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F92" s="1" t="s">
@@ -5757,8 +5757,8 @@
       </c>
     </row>
     <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A93" s="5" t="s">
-        <v>390</v>
+      <c r="A93" s="4" t="s">
+        <v>392</v>
       </c>
       <c r="B93" s="0" t="s">
         <v>299</v>
@@ -5769,7 +5769,7 @@
       <c r="D93" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E93" s="5" t="s">
+      <c r="E93" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F93" s="1" t="s">
@@ -5780,8 +5780,8 @@
       </c>
     </row>
     <row r="94" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A94" s="5" t="s">
-        <v>391</v>
+      <c r="A94" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="B94" s="0" t="s">
         <v>302</v>
@@ -5792,7 +5792,7 @@
       <c r="D94" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E94" s="5" t="s">
+      <c r="E94" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F94" s="1" t="s">
@@ -5803,8 +5803,8 @@
       </c>
     </row>
     <row r="95" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="5" t="s">
-        <v>392</v>
+      <c r="A95" s="4" t="s">
+        <v>394</v>
       </c>
       <c r="B95" s="0" t="s">
         <v>305</v>
@@ -5816,7 +5816,7 @@
         <v>17</v>
       </c>
       <c r="E95" s="0" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>306</v>
@@ -5832,8 +5832,8 @@
       </c>
     </row>
     <row r="96" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="5" t="s">
-        <v>394</v>
+      <c r="A96" s="4" t="s">
+        <v>396</v>
       </c>
       <c r="B96" s="0" t="s">
         <v>310</v>
@@ -5867,7 +5867,7 @@
       <c r="D97" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E97" s="5" t="s">
+      <c r="E97" s="4" t="s">
         <v>352</v>
       </c>
       <c r="F97" s="1" t="s">
@@ -5878,8 +5878,8 @@
       </c>
     </row>
     <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="5" t="s">
-        <v>395</v>
+      <c r="A98" s="4" t="s">
+        <v>397</v>
       </c>
       <c r="B98" s="0" t="s">
         <v>316</v>
@@ -5898,8 +5898,8 @@
       </c>
     </row>
     <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="5" t="s">
-        <v>396</v>
+      <c r="A99" s="4" t="s">
+        <v>398</v>
       </c>
       <c r="B99" s="0" t="s">
         <v>319</v>
@@ -5999,7 +5999,7 @@
       <c r="D104" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="4" t="s">
         <v>352</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -6019,7 +6019,7 @@
       <c r="D105" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="4" t="s">
         <v>352</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -6039,8 +6039,8 @@
       <c r="D106" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="E106" s="0" t="s">
-        <v>397</v>
+      <c r="E106" s="6" t="s">
+        <v>352</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>341</v>

--- a/doc/objects/cat001.xlsx
+++ b/doc/objects/cat001.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="260">
   <si>
     <t xml:space="preserve">Active</t>
   </si>
@@ -67,7 +67,8 @@
     <t xml:space="preserve">UCHAR</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Source Identifier System Area Code</t>
+    <t xml:space="preserve">From 010.SAC
+Data Source Identifier System Area Code</t>
   </si>
   <si>
     <t xml:space="preserve">sac</t>
@@ -82,7 +83,8 @@
     <t xml:space="preserve">SIC</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Source Identifier System Identification Code</t>
+    <t xml:space="preserve">From 010.SIC
+Data Source Identifier System Identification Code</t>
   </si>
   <si>
     <t xml:space="preserve">sic</t>
@@ -153,7 +155,8 @@
     <t xml:space="preserve">ME</t>
   </si>
   <si>
-    <t xml:space="preserve">0 No military emergency 
+    <t xml:space="preserve">From 020.ME
+0 No military emergency 
 1 Military emergency</t>
   </si>
   <si>
@@ -173,7 +176,8 @@
     <t xml:space="preserve">MI</t>
   </si>
   <si>
-    <t xml:space="preserve">0 No military identification
+    <t xml:space="preserve">From 020.MI
+0 No military identification
 1 Military identification</t>
   </si>
   <si>
@@ -190,7 +194,8 @@
     <t xml:space="preserve">FFT</t>
   </si>
   <si>
-    <t xml:space="preserve">0 Report from aircraft transponder
+    <t xml:space="preserve">From 020.RAB
+0 Report from aircraft transponder
 1 Report from field monitor(fixed transponder)</t>
   </si>
   <si>
@@ -210,7 +215,8 @@
     <t xml:space="preserve">SIM</t>
   </si>
   <si>
-    <t xml:space="preserve">0  Actual target report
+    <t xml:space="preserve">From 020.SIM
+0  Actual target report
 1 Simulated target report</t>
   </si>
   <si>
@@ -227,7 +233,8 @@
     <t xml:space="preserve">SPI</t>
   </si>
   <si>
-    <t xml:space="preserve">0 Absence of SPI
+    <t xml:space="preserve">From 020.SPI
+0 Absence of SPI
 1 Special Position Identification</t>
   </si>
   <si>
@@ -250,7 +257,9 @@
     <t xml:space="preserve">TYP</t>
   </si>
   <si>
-    <t xml:space="preserve">Radar detection in last antenna scan, as follows:
+    <t xml:space="preserve">From 020.TYP
+From 020.SSR/PSR
+Radar detection in last antenna scan, as follows:
 0 No detection;
 1 Sole primary detection;
 2 Sole secondary detection;
@@ -273,7 +282,8 @@
     <t xml:space="preserve">TST</t>
   </si>
   <si>
-    <t xml:space="preserve">0 Real target report
+    <t xml:space="preserve">From 020.TST
+0 Real target report
 1 Test target report</t>
   </si>
   <si>
@@ -324,7 +334,8 @@
     <t xml:space="preserve">DOUBLE</t>
   </si>
   <si>
-    <t xml:space="preserve">Measured position of an aircraft in local polar co-ordinates
+    <t xml:space="preserve">From 040.RHO
+Measured position of an aircraft in local polar co-ordinates
 Max. range = 256 NM</t>
   </si>
   <si>
@@ -343,7 +354,8 @@
     <t xml:space="preserve">Azm</t>
   </si>
   <si>
-    <t xml:space="preserve">Measured position of an aircraft in local polar co-ordinates</t>
+    <t xml:space="preserve">From 040.THETA
+Measured position of an aircraft in local polar co-ordinates</t>
   </si>
   <si>
     <t xml:space="preserve">azimuth</t>
@@ -418,6 +430,11 @@
     <t xml:space="preserve">MA G</t>
   </si>
   <si>
+    <t xml:space="preserve">From 070.G
+0 Default
+1 Garbled code</t>
+  </si>
+  <si>
     <t xml:space="preserve">mode_3a_garbled</t>
   </si>
   <si>
@@ -434,7 +451,8 @@
     <t xml:space="preserve">MA S</t>
   </si>
   <si>
-    <t xml:space="preserve">0 Mode-3/A code derived from the reply of the transponder
+    <t xml:space="preserve">From 070.L
+0 Mode-3/A code derived from the reply of the transponder
 1 Mode-3/A code not extracted during the last scan</t>
   </si>
   <si>
@@ -453,7 +471,8 @@
     <t xml:space="preserve">UINT</t>
   </si>
   <si>
-    <t xml:space="preserve">070.Mode-3/A reply in decimal
+    <t xml:space="preserve">From 070.Mode-3/A reply
+070.Mode-3/A reply in decimal
 representation</t>
   </si>
   <si>
@@ -469,7 +488,8 @@
     <t xml:space="preserve">MA V</t>
   </si>
   <si>
-    <t xml:space="preserve">0 Code not validated
+    <t xml:space="preserve">From 070.V
+0 Code not validated
 1 Code validated
 </t>
   </si>
@@ -509,7 +529,8 @@
     <t xml:space="preserve">FLOAT</t>
   </si>
   <si>
-    <t xml:space="preserve">From 090.Flight Level
+    <t xml:space="preserve">From 090.Mode-C HEIGHT
+From 090.Flight Level
 This data item shall be sent when Mode C code or Mode S altitude code is present and decodable. It represents the flight level of the plot, even if associated
 with a track.</t>
   </si>
@@ -600,7 +621,8 @@
     <t xml:space="preserve">ToD</t>
   </si>
   <si>
-    <t xml:space="preserve">Absolute time stamping expressed as Co-ordinated Universal Time (UTC)</t>
+    <t xml:space="preserve">From 140.Time-of-Day
+Absolute time stamping expressed as Co-ordinated Universal Time (UTC)</t>
   </si>
   <si>
     <t xml:space="preserve">time_of_day</t>
@@ -654,7 +676,8 @@
     <t xml:space="preserve">TN</t>
   </si>
   <si>
-    <t xml:space="preserve">An integer value representing a unique reference to a
+    <t xml:space="preserve">From 161.TRACK/PLOT NUMBER
+An integer value representing a unique reference to a
 track/plot record within a particular track/plot file.</t>
   </si>
   <si>
@@ -674,7 +697,8 @@
     <t xml:space="preserve">CNF</t>
   </si>
   <si>
-    <t xml:space="preserve">From 170.CNF
+    <t xml:space="preserve">From 170.CON
+From 170.CNF
 Confirmed vs. Tentative Track
 0 Tentative Track
 1 Confirmed Track</t>
@@ -743,7 +767,8 @@
     <t xml:space="preserve">MAH</t>
   </si>
   <si>
-    <t xml:space="preserve">From 170.MAH
+    <t xml:space="preserve">From 170.MAN
+From 170.MAH
 Manoeuvre detection in Horizontal Sense
 0 No horizontal man.sensed
 1 Horizontal man. sensed</t>
@@ -833,7 +858,8 @@
     <t xml:space="preserve">GSpd</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculated track velocity expressed in polar co-ordinates.</t>
+    <t xml:space="preserve">From 200.CALCULATED GROUNDSPEED
+Calculated track velocity expressed in polar co-ordinates.</t>
   </si>
   <si>
     <t xml:space="preserve">track_groundspeed</t>
@@ -848,7 +874,8 @@
     <t xml:space="preserve">Ang</t>
   </si>
   <si>
-    <t xml:space="preserve">Calculated track velocity expressed in polar co-ordinates.
+    <t xml:space="preserve">From 200.CALCULATED HEADING
+Calculated track velocity expressed in polar co-ordinates.
 Was called Track Heading previously, but renamed since it refers to  the direction of movement.</t>
   </si>
   <si>
@@ -874,7 +901,8 @@
     <t xml:space="preserve">STRING</t>
   </si>
   <si>
-    <t xml:space="preserve">ARTAS MD5 Hash Code</t>
+    <t xml:space="preserve">From artas_md5
+ARTAS MD5 Hash Code</t>
   </si>
   <si>
     <t xml:space="preserve">artas_hash</t>
@@ -886,7 +914,8 @@
     <t xml:space="preserve">DS ID</t>
   </si>
   <si>
-    <t xml:space="preserve">Data Source ID</t>
+    <t xml:space="preserve">From ds_id
+Data Source ID</t>
   </si>
   <si>
     <t xml:space="preserve">rec_num</t>
@@ -1016,8 +1045,8 @@
   </sheetPr>
   <dimension ref="A1:J64"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A10" activeCellId="0" sqref="A10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A25" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1029,13 +1058,13 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="21.76"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="16.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="27.58"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="16.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="19.8"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="11" style="1" width="11.54"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="2" customFormat="true" ht="22.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1067,7 +1096,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -1090,7 +1119,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1172,7 +1201,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -1198,7 +1227,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1224,7 +1253,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" s="3" customFormat="true" ht="43.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" s="3" customFormat="true" ht="64.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="3" t="s">
         <v>10</v>
       </c>
@@ -1247,7 +1276,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
@@ -1273,7 +1302,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1296,7 +1325,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="124.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -1322,7 +1351,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1348,7 +1377,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="124.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="1" t="s">
         <v>10</v>
       </c>
@@ -1387,7 +1416,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>10</v>
       </c>
@@ -1416,7 +1445,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>10</v>
       </c>
@@ -1531,7 +1560,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="1" t="s">
         <v>10</v>
       </c>
@@ -1551,90 +1580,90 @@
         <v>26</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>111</v>
@@ -1645,51 +1674,51 @@
         <v>10</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>104</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="96.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="117.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1697,30 +1726,30 @@
         <v>10</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>109</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="1" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>104</v>
@@ -1728,15 +1757,15 @@
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="1" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="1" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>111</v>
@@ -1744,7 +1773,7 @@
     </row>
     <row r="38" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>109</v>
@@ -1752,20 +1781,20 @@
     </row>
     <row r="39" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="1" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="1" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1773,54 +1802,54 @@
         <v>10</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="H42" s="1" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E43" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I43" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="I43" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="J43" s="1" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1828,98 +1857,98 @@
         <v>10</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="1" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="1" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="1" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="46" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H48" s="1" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H49" s="1" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1927,30 +1956,30 @@
         <v>10</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H50" s="1" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="1" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1958,51 +1987,51 @@
         <v>10</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H52" s="1" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="53" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="90.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2010,25 +2039,25 @@
         <v>10</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>14</v>
       </c>
       <c r="H54" s="1" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2036,25 +2065,25 @@
         <v>10</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="68.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2062,164 +2091,164 @@
         <v>10</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>26</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="57.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H57" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I57" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="79.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="113.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D58" s="1" t="s">
         <v>89</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>85</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>89</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="1" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E62" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="J62" s="1" t="s">
         <v>253</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>254</v>
-      </c>
-      <c r="J62" s="1" t="s">
-        <v>252</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="23.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E63" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H63" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="J63" s="1" t="s">
         <v>256</v>
-      </c>
-      <c r="J63" s="1" t="s">
-        <v>255</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="34.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="E64" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H64" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="J64" s="1" t="s">
         <v>258</v>
-      </c>
-      <c r="J64" s="1" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
